--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.6042373323352</v>
+        <v>5.147963333333333</v>
       </c>
       <c r="H2">
-        <v>4.6042373323352</v>
+        <v>15.44389</v>
       </c>
       <c r="I2">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="J2">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N2">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q2">
-        <v>7.390599069694111</v>
+        <v>9.004050416130001</v>
       </c>
       <c r="R2">
-        <v>7.390599069694111</v>
+        <v>81.03645374517001</v>
       </c>
       <c r="S2">
-        <v>0.0002849109517872217</v>
+        <v>0.0003215113915767717</v>
       </c>
       <c r="T2">
-        <v>0.0002849109517872217</v>
+        <v>0.0003215113915767717</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.6042373323352</v>
+        <v>5.147963333333333</v>
       </c>
       <c r="H3">
-        <v>4.6042373323352</v>
+        <v>15.44389</v>
       </c>
       <c r="I3">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="J3">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N3">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q3">
-        <v>655.8068354577945</v>
+        <v>736.3417839230445</v>
       </c>
       <c r="R3">
-        <v>655.8068354577945</v>
+        <v>6627.076055307401</v>
       </c>
       <c r="S3">
-        <v>0.02528165144893721</v>
+        <v>0.02629286384282307</v>
       </c>
       <c r="T3">
-        <v>0.02528165144893721</v>
+        <v>0.02629286384282307</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.6042373323352</v>
+        <v>5.147963333333333</v>
       </c>
       <c r="H4">
-        <v>4.6042373323352</v>
+        <v>15.44389</v>
       </c>
       <c r="I4">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="J4">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N4">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q4">
-        <v>559.9423632702174</v>
+        <v>683.6743026662266</v>
       </c>
       <c r="R4">
-        <v>559.9423632702174</v>
+        <v>6153.06872399604</v>
       </c>
       <c r="S4">
-        <v>0.02158603249356169</v>
+        <v>0.02441224407648006</v>
       </c>
       <c r="T4">
-        <v>0.02158603249356169</v>
+        <v>0.02441224407648007</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.6042373323352</v>
+        <v>5.147963333333333</v>
       </c>
       <c r="H5">
-        <v>4.6042373323352</v>
+        <v>15.44389</v>
       </c>
       <c r="I5">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="J5">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N5">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q5">
-        <v>575.1341064645941</v>
+        <v>647.1359739685867</v>
       </c>
       <c r="R5">
-        <v>575.1341064645941</v>
+        <v>5824.22376571728</v>
       </c>
       <c r="S5">
-        <v>0.02217168109552219</v>
+        <v>0.02310755470197112</v>
       </c>
       <c r="T5">
-        <v>0.02217168109552219</v>
+        <v>0.02310755470197112</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.6042373323352</v>
+        <v>5.147963333333333</v>
       </c>
       <c r="H6">
-        <v>4.6042373323352</v>
+        <v>15.44389</v>
       </c>
       <c r="I6">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="J6">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N6">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O6">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P6">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q6">
-        <v>242.4917893346503</v>
+        <v>275.8612427823389</v>
       </c>
       <c r="R6">
-        <v>242.4917893346503</v>
+        <v>2482.75118504105</v>
       </c>
       <c r="S6">
-        <v>0.009348168646196253</v>
+        <v>0.00985029269606956</v>
       </c>
       <c r="T6">
-        <v>0.009348168646196253</v>
+        <v>0.009850292696069561</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.6042373323352</v>
+        <v>5.147963333333333</v>
       </c>
       <c r="H7">
-        <v>4.6042373323352</v>
+        <v>15.44389</v>
       </c>
       <c r="I7">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="J7">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N7">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q7">
-        <v>99.84131680866385</v>
+        <v>118.4171316711289</v>
       </c>
       <c r="R7">
-        <v>99.84131680866385</v>
+        <v>1065.75418504016</v>
       </c>
       <c r="S7">
-        <v>0.003848928122253464</v>
+        <v>0.004228370014667047</v>
       </c>
       <c r="T7">
-        <v>0.003848928122253464</v>
+        <v>0.004228370014667048</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.512913319564</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H8">
-        <v>10.512913319564</v>
+        <v>31.579463</v>
       </c>
       <c r="I8">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="J8">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N8">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q8">
-        <v>16.87504830684692</v>
+        <v>18.41136377987101</v>
       </c>
       <c r="R8">
-        <v>16.87504830684692</v>
+        <v>165.702274018839</v>
       </c>
       <c r="S8">
-        <v>0.0006505407787948231</v>
+        <v>0.0006574222617732433</v>
       </c>
       <c r="T8">
-        <v>0.0006505407787948231</v>
+        <v>0.0006574222617732433</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.512913319564</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H9">
-        <v>10.512913319564</v>
+        <v>31.579463</v>
       </c>
       <c r="I9">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="J9">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N9">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q9">
-        <v>1497.412039802172</v>
+        <v>1505.661988058176</v>
       </c>
       <c r="R9">
-        <v>1497.412039802172</v>
+        <v>13550.95789252358</v>
       </c>
       <c r="S9">
-        <v>0.05772591442919928</v>
+        <v>0.05376330191994823</v>
       </c>
       <c r="T9">
-        <v>0.05772591442919928</v>
+        <v>0.05376330191994823</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.512913319564</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H10">
-        <v>10.512913319564</v>
+        <v>31.579463</v>
       </c>
       <c r="I10">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="J10">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N10">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q10">
-        <v>1278.523478290378</v>
+        <v>1397.968215591985</v>
       </c>
       <c r="R10">
-        <v>1278.523478290378</v>
+        <v>12581.71394032787</v>
       </c>
       <c r="S10">
-        <v>0.04928766093884424</v>
+        <v>0.04991783537438894</v>
       </c>
       <c r="T10">
-        <v>0.04928766093884424</v>
+        <v>0.04991783537438895</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.512913319564</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H11">
-        <v>10.512913319564</v>
+        <v>31.579463</v>
       </c>
       <c r="I11">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="J11">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N11">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q11">
-        <v>1313.210977619297</v>
+        <v>1323.255121987397</v>
       </c>
       <c r="R11">
-        <v>1313.210977619297</v>
+        <v>11909.29609788658</v>
       </c>
       <c r="S11">
-        <v>0.0506248797969807</v>
+        <v>0.04725002371367402</v>
       </c>
       <c r="T11">
-        <v>0.0506248797969807</v>
+        <v>0.04725002371367402</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.512913319564</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H12">
-        <v>10.512913319564</v>
+        <v>31.579463</v>
       </c>
       <c r="I12">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="J12">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N12">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O12">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P12">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q12">
-        <v>553.6845687944128</v>
+        <v>564.0774383642262</v>
       </c>
       <c r="R12">
-        <v>553.6845687944128</v>
+        <v>5076.696945278036</v>
       </c>
       <c r="S12">
-        <v>0.02134479167351758</v>
+        <v>0.02014174885567684</v>
       </c>
       <c r="T12">
-        <v>0.02134479167351758</v>
+        <v>0.02014174885567684</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.512913319564</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H13">
-        <v>10.512913319564</v>
+        <v>31.579463</v>
       </c>
       <c r="I13">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="J13">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N13">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q13">
-        <v>227.9689411206477</v>
+        <v>242.1377922385191</v>
       </c>
       <c r="R13">
-        <v>227.9689411206477</v>
+        <v>2179.240130146673</v>
       </c>
       <c r="S13">
-        <v>0.00878830624961734</v>
+        <v>0.008646115352316516</v>
       </c>
       <c r="T13">
-        <v>0.00878830624961734</v>
+        <v>0.008646115352316517</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.5157502220847</v>
+        <v>15.86906433333333</v>
       </c>
       <c r="H14">
-        <v>14.5157502220847</v>
+        <v>47.607193</v>
       </c>
       <c r="I14">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="J14">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N14">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q14">
-        <v>23.30029543304198</v>
+        <v>27.75580284128101</v>
       </c>
       <c r="R14">
-        <v>23.30029543304198</v>
+        <v>249.802225571529</v>
       </c>
       <c r="S14">
-        <v>0.0008982369745875295</v>
+        <v>0.0009910880529771932</v>
       </c>
       <c r="T14">
-        <v>0.0008982369745875295</v>
+        <v>0.0009910880529771934</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.5157502220847</v>
+        <v>15.86906433333333</v>
       </c>
       <c r="H15">
-        <v>14.5157502220847</v>
+        <v>47.607193</v>
       </c>
       <c r="I15">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="J15">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N15">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q15">
-        <v>2067.558105787953</v>
+        <v>2269.840397800598</v>
       </c>
       <c r="R15">
-        <v>2067.558105787953</v>
+        <v>20428.56358020538</v>
       </c>
       <c r="S15">
-        <v>0.07970530429812803</v>
+        <v>0.08105013979560848</v>
       </c>
       <c r="T15">
-        <v>0.07970530429812803</v>
+        <v>0.08105013979560848</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.5157502220847</v>
+        <v>15.86906433333333</v>
       </c>
       <c r="H16">
-        <v>14.5157502220847</v>
+        <v>47.607193</v>
       </c>
       <c r="I16">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="J16">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N16">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q16">
-        <v>1765.326784288919</v>
+        <v>2107.488105404239</v>
       </c>
       <c r="R16">
-        <v>1765.326784288919</v>
+        <v>18967.39294863815</v>
       </c>
       <c r="S16">
-        <v>0.06805414954650603</v>
+        <v>0.07525295863361454</v>
       </c>
       <c r="T16">
-        <v>0.06805414954650603</v>
+        <v>0.07525295863361456</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.5157502220847</v>
+        <v>15.86906433333333</v>
       </c>
       <c r="H17">
-        <v>14.5157502220847</v>
+        <v>47.607193</v>
       </c>
       <c r="I17">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="J17">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N17">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q17">
-        <v>1813.221697980474</v>
+        <v>1994.855390058171</v>
       </c>
       <c r="R17">
-        <v>1813.221697980474</v>
+        <v>17953.69851052354</v>
       </c>
       <c r="S17">
-        <v>0.06990052022863159</v>
+        <v>0.07123113519034366</v>
       </c>
       <c r="T17">
-        <v>0.06990052022863159</v>
+        <v>0.07123113519034366</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.5157502220847</v>
+        <v>15.86906433333333</v>
       </c>
       <c r="H18">
-        <v>14.5157502220847</v>
+        <v>47.607193</v>
       </c>
       <c r="I18">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="J18">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N18">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O18">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P18">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q18">
-        <v>764.5023466031671</v>
+        <v>850.3673249653206</v>
       </c>
       <c r="R18">
-        <v>764.5023466031671</v>
+        <v>7653.305924687886</v>
       </c>
       <c r="S18">
-        <v>0.02947191278545272</v>
+        <v>0.03036442149537933</v>
       </c>
       <c r="T18">
-        <v>0.02947191278545272</v>
+        <v>0.03036442149537934</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.5157502220847</v>
+        <v>15.86906433333333</v>
       </c>
       <c r="H19">
-        <v>14.5157502220847</v>
+        <v>47.607193</v>
       </c>
       <c r="I19">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="J19">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N19">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q19">
-        <v>314.7690946468961</v>
+        <v>365.0315588866436</v>
       </c>
       <c r="R19">
-        <v>314.7690946468961</v>
+        <v>3285.284029979792</v>
       </c>
       <c r="S19">
-        <v>0.01213449160255436</v>
+        <v>0.01303433444317895</v>
       </c>
       <c r="T19">
-        <v>0.01213449160255436</v>
+        <v>0.01303433444317896</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.1083783579714</v>
+        <v>15.12051333333333</v>
       </c>
       <c r="H20">
-        <v>15.1083783579714</v>
+        <v>45.36154</v>
       </c>
       <c r="I20">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="J20">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N20">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q20">
-        <v>24.2515663240969</v>
+        <v>26.44654896618</v>
       </c>
       <c r="R20">
-        <v>24.2515663240969</v>
+        <v>238.01894069562</v>
       </c>
       <c r="S20">
-        <v>0.0009349088996131081</v>
+        <v>0.0009443379776381074</v>
       </c>
       <c r="T20">
-        <v>0.0009349088996131081</v>
+        <v>0.0009443379776381075</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.1083783579714</v>
+        <v>15.12051333333333</v>
       </c>
       <c r="H21">
-        <v>15.1083783579714</v>
+        <v>45.36154</v>
       </c>
       <c r="I21">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="J21">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N21">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q21">
-        <v>2151.969389209347</v>
+        <v>2162.770991317378</v>
       </c>
       <c r="R21">
-        <v>2151.969389209347</v>
+        <v>19464.9389218564</v>
       </c>
       <c r="S21">
-        <v>0.08295939762322645</v>
+        <v>0.07722696774716555</v>
       </c>
       <c r="T21">
-        <v>0.08295939762322645</v>
+        <v>0.07722696774716555</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>15.1083783579714</v>
+        <v>15.12051333333333</v>
       </c>
       <c r="H22">
-        <v>15.1083783579714</v>
+        <v>45.36154</v>
       </c>
       <c r="I22">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="J22">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N22">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q22">
-        <v>1837.399002768699</v>
+        <v>2008.076930576827</v>
       </c>
       <c r="R22">
-        <v>1837.399002768699</v>
+        <v>18072.69237519144</v>
       </c>
       <c r="S22">
-        <v>0.07083256631229883</v>
+        <v>0.07170324226376991</v>
       </c>
       <c r="T22">
-        <v>0.07083256631229883</v>
+        <v>0.07170324226376992</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>15.1083783579714</v>
+        <v>15.12051333333333</v>
       </c>
       <c r="H23">
-        <v>15.1083783579714</v>
+        <v>45.36154</v>
       </c>
       <c r="I23">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="J23">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N23">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q23">
-        <v>1887.249300989832</v>
+        <v>1900.757151767787</v>
       </c>
       <c r="R23">
-        <v>1887.249300989832</v>
+        <v>17106.81436591008</v>
       </c>
       <c r="S23">
-        <v>0.07275431795639761</v>
+        <v>0.06787113006604235</v>
       </c>
       <c r="T23">
-        <v>0.07275431795639761</v>
+        <v>0.06787113006604235</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>15.1083783579714</v>
+        <v>15.12051333333333</v>
       </c>
       <c r="H24">
-        <v>15.1083783579714</v>
+        <v>45.36154</v>
       </c>
       <c r="I24">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="J24">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N24">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O24">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P24">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q24">
-        <v>795.7143469212172</v>
+        <v>810.2551105272555</v>
       </c>
       <c r="R24">
-        <v>795.7143469212172</v>
+        <v>7292.2959947453</v>
       </c>
       <c r="S24">
-        <v>0.03067514957775334</v>
+        <v>0.0289321178889818</v>
       </c>
       <c r="T24">
-        <v>0.03067514957775334</v>
+        <v>0.02893211788898181</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>15.1083783579714</v>
+        <v>15.12051333333333</v>
       </c>
       <c r="H25">
-        <v>15.1083783579714</v>
+        <v>45.36154</v>
       </c>
       <c r="I25">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="J25">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N25">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O25">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P25">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q25">
-        <v>327.6200337262642</v>
+        <v>347.8128538201955</v>
       </c>
       <c r="R25">
-        <v>327.6200337262642</v>
+        <v>3130.31568438176</v>
       </c>
       <c r="S25">
-        <v>0.01262990114242186</v>
+        <v>0.01241949894457419</v>
       </c>
       <c r="T25">
-        <v>0.01262990114242186</v>
+        <v>0.01241949894457419</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.70442513609964</v>
+        <v>5.843775333333333</v>
       </c>
       <c r="H26">
-        <v>5.70442513609964</v>
+        <v>17.531326</v>
       </c>
       <c r="I26">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235315</v>
       </c>
       <c r="J26">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235316</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N26">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O26">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P26">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q26">
-        <v>9.156591213905829</v>
+        <v>10.221061090542</v>
       </c>
       <c r="R26">
-        <v>9.156591213905829</v>
+        <v>91.98954981487802</v>
       </c>
       <c r="S26">
-        <v>0.0003529907512610338</v>
+        <v>0.0003649677003945274</v>
       </c>
       <c r="T26">
-        <v>0.0003529907512610338</v>
+        <v>0.0003649677003945275</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.70442513609964</v>
+        <v>5.843775333333333</v>
       </c>
       <c r="H27">
-        <v>5.70442513609964</v>
+        <v>17.531326</v>
       </c>
       <c r="I27">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235315</v>
       </c>
       <c r="J27">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235316</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N27">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P27">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q27">
-        <v>812.5126327304296</v>
+        <v>835.8676383590179</v>
       </c>
       <c r="R27">
-        <v>812.5126327304296</v>
+        <v>7522.80874523116</v>
       </c>
       <c r="S27">
-        <v>0.0313227311273901</v>
+        <v>0.02984667512538253</v>
       </c>
       <c r="T27">
-        <v>0.0313227311273901</v>
+        <v>0.02984667512538254</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.70442513609964</v>
+        <v>5.843775333333333</v>
       </c>
       <c r="H28">
-        <v>5.70442513609964</v>
+        <v>17.531326</v>
       </c>
       <c r="I28">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235315</v>
       </c>
       <c r="J28">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235316</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N28">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O28">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P28">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q28">
-        <v>693.7412347042585</v>
+        <v>776.0814845135707</v>
       </c>
       <c r="R28">
-        <v>693.7412347042585</v>
+        <v>6984.733360622136</v>
       </c>
       <c r="S28">
-        <v>0.02674403977400622</v>
+        <v>0.02771186594156919</v>
       </c>
       <c r="T28">
-        <v>0.02674403977400622</v>
+        <v>0.0277118659415692</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.70442513609964</v>
+        <v>5.843775333333333</v>
       </c>
       <c r="H29">
-        <v>5.70442513609964</v>
+        <v>17.531326</v>
       </c>
       <c r="I29">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235315</v>
       </c>
       <c r="J29">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235316</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N29">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O29">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P29">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q29">
-        <v>712.5630623999263</v>
+        <v>734.6045410819946</v>
       </c>
       <c r="R29">
-        <v>712.5630623999263</v>
+        <v>6611.440869737952</v>
       </c>
       <c r="S29">
-        <v>0.02746962978268866</v>
+        <v>0.02623083138659292</v>
       </c>
       <c r="T29">
-        <v>0.02746962978268866</v>
+        <v>0.02623083138659292</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.70442513609964</v>
+        <v>5.843775333333333</v>
       </c>
       <c r="H30">
-        <v>5.70442513609964</v>
+        <v>17.531326</v>
       </c>
       <c r="I30">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235315</v>
       </c>
       <c r="J30">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235316</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N30">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O30">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P30">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q30">
-        <v>300.4354811737693</v>
+        <v>313.1473597637855</v>
       </c>
       <c r="R30">
-        <v>300.4354811737693</v>
+        <v>2818.32623787407</v>
       </c>
       <c r="S30">
-        <v>0.01158192429120814</v>
+        <v>0.0111816836593769</v>
       </c>
       <c r="T30">
-        <v>0.01158192429120814</v>
+        <v>0.01118168365937691</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.70442513609964</v>
+        <v>5.843775333333333</v>
       </c>
       <c r="H31">
-        <v>5.70442513609964</v>
+        <v>17.531326</v>
       </c>
       <c r="I31">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235315</v>
       </c>
       <c r="J31">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235316</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N31">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O31">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P31">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q31">
-        <v>123.6985142413953</v>
+        <v>134.4226965687716</v>
       </c>
       <c r="R31">
-        <v>123.6985142413953</v>
+        <v>1209.804269118944</v>
       </c>
       <c r="S31">
-        <v>0.004768633921937238</v>
+        <v>0.004799887410215482</v>
       </c>
       <c r="T31">
-        <v>0.004768633921937238</v>
+        <v>0.004799887410215484</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>5.34877866633504</v>
+        <v>5.850633666666667</v>
       </c>
       <c r="H32">
-        <v>5.34877866633504</v>
+        <v>17.551901</v>
       </c>
       <c r="I32">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="J32">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N32">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O32">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P32">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q32">
-        <v>8.585716978096368</v>
+        <v>10.233056665317</v>
       </c>
       <c r="R32">
-        <v>8.585716978096368</v>
+        <v>92.09750998785302</v>
       </c>
       <c r="S32">
-        <v>0.0003309832901145846</v>
+        <v>0.0003653960313967356</v>
       </c>
       <c r="T32">
-        <v>0.0003309832901145846</v>
+        <v>0.0003653960313967356</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>5.34877866633504</v>
+        <v>5.850633666666667</v>
       </c>
       <c r="H33">
-        <v>5.34877866633504</v>
+        <v>17.551901</v>
       </c>
       <c r="I33">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="J33">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N33">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P33">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q33">
-        <v>761.8559508430593</v>
+        <v>836.8486238622958</v>
       </c>
       <c r="R33">
-        <v>761.8559508430593</v>
+        <v>7531.637614760661</v>
       </c>
       <c r="S33">
-        <v>0.02936989302660668</v>
+        <v>0.0298817035847646</v>
       </c>
       <c r="T33">
-        <v>0.02936989302660668</v>
+        <v>0.0298817035847646</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>5.34877866633504</v>
+        <v>5.850633666666667</v>
       </c>
       <c r="H34">
-        <v>5.34877866633504</v>
+        <v>17.551901</v>
       </c>
       <c r="I34">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="J34">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N34">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O34">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P34">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q34">
-        <v>650.4894406731072</v>
+        <v>776.9923041825374</v>
       </c>
       <c r="R34">
-        <v>650.4894406731072</v>
+        <v>6992.930737642837</v>
       </c>
       <c r="S34">
-        <v>0.02507666346422215</v>
+        <v>0.02774438896017872</v>
       </c>
       <c r="T34">
-        <v>0.02507666346422215</v>
+        <v>0.02774438896017873</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>5.34877866633504</v>
+        <v>5.850633666666667</v>
       </c>
       <c r="H35">
-        <v>5.34877866633504</v>
+        <v>17.551901</v>
       </c>
       <c r="I35">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="J35">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N35">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O35">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P35">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q35">
-        <v>668.1378080437159</v>
+        <v>735.4666828522613</v>
       </c>
       <c r="R35">
-        <v>668.1378080437159</v>
+        <v>6619.200145670353</v>
       </c>
       <c r="S35">
-        <v>0.02575701604425444</v>
+        <v>0.02626161624312797</v>
       </c>
       <c r="T35">
-        <v>0.02575701604425444</v>
+        <v>0.02626161624312797</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>5.34877866633504</v>
+        <v>5.850633666666667</v>
       </c>
       <c r="H36">
-        <v>5.34877866633504</v>
+        <v>17.551901</v>
       </c>
       <c r="I36">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="J36">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N36">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O36">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P36">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q36">
-        <v>281.7046159731196</v>
+        <v>313.5148737172161</v>
       </c>
       <c r="R36">
-        <v>281.7046159731196</v>
+        <v>2821.633863454945</v>
       </c>
       <c r="S36">
-        <v>0.01085984092803416</v>
+        <v>0.01119480663371961</v>
       </c>
       <c r="T36">
-        <v>0.01085984092803416</v>
+        <v>0.01119480663371962</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>5.34877866633504</v>
+        <v>5.850633666666667</v>
       </c>
       <c r="H37">
-        <v>5.34877866633504</v>
+        <v>17.551901</v>
       </c>
       <c r="I37">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="J37">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N37">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O37">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P37">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q37">
-        <v>115.9864417966759</v>
+        <v>134.5804568535271</v>
       </c>
       <c r="R37">
-        <v>115.9864417966759</v>
+        <v>1211.224111681744</v>
       </c>
       <c r="S37">
-        <v>0.004471330025493031</v>
+        <v>0.004805520622641353</v>
       </c>
       <c r="T37">
-        <v>0.004471330025493031</v>
+        <v>0.004805520622641355</v>
       </c>
     </row>
   </sheetData>
